--- a/Results/Sharpe_SINV.xlsx
+++ b/Results/Sharpe_SINV.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Big</t>
+  </si>
+  <si>
+    <t>INV1</t>
+  </si>
+  <si>
+    <t>INV2</t>
+  </si>
+  <si>
+    <t>INV3</t>
+  </si>
+  <si>
+    <t>INV4</t>
+  </si>
+  <si>
+    <t>INV5</t>
   </si>
 </sst>
 </file>
@@ -66,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -88,11 +103,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -108,6 +151,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,132 +191,132 @@
   <dimension ref="D1:I6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="4.7265625" customWidth="true"/>
-    <col min="5" max="5" width="13.453125" customWidth="true"/>
-    <col min="6" max="6" width="13.453125" customWidth="true"/>
-    <col min="7" max="7" width="13.453125" customWidth="true"/>
-    <col min="8" max="8" width="13.453125" customWidth="true"/>
-    <col min="9" max="9" width="13.453125" customWidth="true"/>
+    <col min="4" max="4" width="4.81640625" customWidth="true"/>
+    <col min="5" max="5" width="12.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.453125" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="12.453125" customWidth="true"/>
+    <col min="9" max="9" width="12.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="13" t="s">
-        <v>1</v>
+      <c r="D2" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.071746052012333653</v>
+        <v>0.1278730659068141</v>
       </c>
       <c r="F2">
-        <v>0.083246997683356486</v>
+        <v>0.13631298943165393</v>
       </c>
       <c r="G2">
-        <v>0.082469524970082989</v>
+        <v>0.14820607142531025</v>
       </c>
       <c r="H2">
-        <v>0.089766237489326148</v>
+        <v>0.14155046677137698</v>
       </c>
       <c r="I2">
-        <v>0.063597673108870961</v>
+        <v>0.15106015219190955</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="13" t="s">
-        <v>2</v>
+      <c r="D3" s="41" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.15754929809046719</v>
+        <v>0.16605374384711433</v>
       </c>
       <c r="F3">
-        <v>0.13780377836480168</v>
+        <v>0.16805995091830583</v>
       </c>
       <c r="G3">
-        <v>0.14245741153799168</v>
+        <v>0.18414493429118439</v>
       </c>
       <c r="H3">
-        <v>0.13144393757007672</v>
+        <v>0.15235390981518857</v>
       </c>
       <c r="I3">
-        <v>0.080496443968278639</v>
+        <v>0.13556886051370262</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="13" t="s">
-        <v>3</v>
+      <c r="D4" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0.15129232698633854</v>
+        <v>0.17002900411382296</v>
       </c>
       <c r="F4">
-        <v>0.15093901059689041</v>
+        <v>0.16934209365369374</v>
       </c>
       <c r="G4">
-        <v>0.14671995120904363</v>
+        <v>0.16398804453838078</v>
       </c>
       <c r="H4">
-        <v>0.1373176357330286</v>
+        <v>0.15729096454421909</v>
       </c>
       <c r="I4">
-        <v>0.11687018888799017</v>
+        <v>0.12060224133814772</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="13" t="s">
-        <v>4</v>
+      <c r="D5" s="41" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0.16292097506246694</v>
+        <v>0.14119043707800494</v>
       </c>
       <c r="F5">
-        <v>0.13879844516677683</v>
+        <v>0.15483293145828297</v>
       </c>
       <c r="G5">
-        <v>0.14079437401830303</v>
+        <v>0.14861206206095923</v>
       </c>
       <c r="H5">
-        <v>0.14665032128284844</v>
+        <v>0.15126058755989744</v>
       </c>
       <c r="I5">
-        <v>0.10940513918022718</v>
+        <v>0.11279204886168546</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="13" t="s">
-        <v>5</v>
+      <c r="D6" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>0.12039181097225392</v>
+        <v>0.048204199715238767</v>
       </c>
       <c r="F6">
-        <v>0.14895003252230454</v>
+        <v>0.068708205009755371</v>
       </c>
       <c r="G6">
-        <v>0.15250316164423428</v>
+        <v>0.076581730920499899</v>
       </c>
       <c r="H6">
-        <v>0.14836165283219413</v>
+        <v>0.088025990079026631</v>
       </c>
       <c r="I6">
-        <v>0.13824334040727834</v>
+        <v>0.088146566355989067</v>
       </c>
     </row>
   </sheetData>
